--- a/storage/excel/login.xlsx
+++ b/storage/excel/login.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="10455" windowHeight="4275"/>
+    <workbookView xWindow="390" yWindow="600" windowWidth="20175" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -28,34 +28,22 @@
     <t>method</t>
   </si>
   <si>
-    <t>sMobile</t>
-  </si>
-  <si>
-    <t>sPassword</t>
+    <t>smobile</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
   <si>
     <t>api.yangbo.qa.anhouse.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/user/user/login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9478fb61e788aba2b70e50f96f4f0cda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18044444321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -65,17 +53,14 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,26 +81,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,20 +386,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,16 +417,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -455,198 +432,16 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>